--- a/data/raw-data/greenhouse.xlsx
+++ b/data/raw-data/greenhouse.xlsx
@@ -2132,7 +2132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC272"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A30" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -25933,7 +25933,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26024,25 +26024,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_activity xmlns="882513f6-57f1-402e-9cd4-ecb8f5f6b480" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010062AF244E107AB5428D9DC167159A3393" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a9722de616b23fae40a3172095eccd93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="882513f6-57f1-402e-9cd4-ecb8f5f6b480" xmlns:ns4="6cb85892-3e52-4f40-966a-40eea172498b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4c2b081c2517e0dc3dd18ae7ac6f8bf" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -26298,33 +26279,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{300CF9E2-6689-495D-85F1-3A1E19A4F7FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6cb85892-3e52-4f40-966a-40eea172498b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="882513f6-57f1-402e-9cd4-ecb8f5f6b480"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{818658CC-5165-43AF-95E3-1C81EFABF418}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="882513f6-57f1-402e-9cd4-ecb8f5f6b480" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3863F98-4852-4346-96F7-88E53D0D948F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26342,4 +26316,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{818658CC-5165-43AF-95E3-1C81EFABF418}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{300CF9E2-6689-495D-85F1-3A1E19A4F7FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6cb85892-3e52-4f40-966a-40eea172498b"/>
+    <ds:schemaRef ds:uri="882513f6-57f1-402e-9cd4-ecb8f5f6b480"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>